--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/word_level_predictions_67.xlsx
@@ -3830,418 +3830,418 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="F331" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G331" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L331" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="F333" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G333" s="2" t="b">
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="L333" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17853,11 +17853,11 @@
         </is>
       </c>
       <c r="I335" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K335" s="2" t="b">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="F336" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G336" s="2" t="b">
@@ -17905,11 +17905,11 @@
         </is>
       </c>
       <c r="I336" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K336" s="2" t="b">
@@ -17917,7 +17917,7 @@
       </c>
       <c r="L336" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="F337" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G337" s="2" t="b">
@@ -17957,11 +17957,11 @@
         </is>
       </c>
       <c r="I337" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K337" s="2" t="b">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="L337" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18009,11 +18009,11 @@
         </is>
       </c>
       <c r="I338" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K338" s="2" t="b">
@@ -18061,11 +18061,11 @@
         </is>
       </c>
       <c r="I339" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J339" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K339" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/word_level_predictions_67.xlsx
@@ -3830,418 +3830,418 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
         <v>5</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" t="n">
         <v>8</v>
       </c>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
         <v>5</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" t="n">
         <v>9</v>
       </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
         <v>5</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>10</v>
       </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>5</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" t="n">
         <v>11</v>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>5</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" t="n">
         <v>12</v>
       </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" t="n">
         <v>5</v>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" t="n">
         <v>13</v>
       </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2" t="inlineStr">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" t="n">
         <v>5</v>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" t="n">
         <v>14</v>
       </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" s="2" t="inlineStr">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" t="n">
         <v>5</v>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" t="n">
         <v>15</v>
       </c>
-      <c r="E73" s="2" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="F331" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G331" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L331" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="F333" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G333" s="2" t="b">
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="L333" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17853,11 +17853,11 @@
         </is>
       </c>
       <c r="I335" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K335" s="2" t="b">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="F336" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G336" s="2" t="b">
@@ -17905,11 +17905,11 @@
         </is>
       </c>
       <c r="I336" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K336" s="2" t="b">
@@ -17917,7 +17917,7 @@
       </c>
       <c r="L336" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="F337" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G337" s="2" t="b">
@@ -17957,11 +17957,11 @@
         </is>
       </c>
       <c r="I337" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K337" s="2" t="b">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="L337" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18009,11 +18009,11 @@
         </is>
       </c>
       <c r="I338" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K338" s="2" t="b">
@@ -18061,11 +18061,11 @@
         </is>
       </c>
       <c r="I339" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J339" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K339" s="2" t="b">
